--- a/data/trans_orig/IP19-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A05CDC4B-E88A-4DE6-889C-FB05492F9921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75B10471-7B16-456A-8669-B337735E19BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C47DDB69-5F4D-49B9-BE7E-B5C0A095784C}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{AC982575-EC98-47BB-9278-7DC2085C5758}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,6 +71,36 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -119,42 +149,105 @@
     <t>0,29%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
     <t>55,31%</t>
   </si>
   <si>
@@ -191,97 +284,31 @@
     <t>0,24%</t>
   </si>
   <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
   </si>
   <si>
     <t>70,76%</t>
@@ -320,36 +347,36 @@
     <t>0,09%</t>
   </si>
   <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
     <t>Menores según si en los últimos 6 meses ha ido al dentista en 2012 (Tasa respuesta: 99,71%)</t>
   </si>
   <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
     <t>96,25%</t>
   </si>
   <si>
@@ -383,31 +410,85 @@
     <t>0,28%</t>
   </si>
   <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
   </si>
   <si>
     <t>57,59%</t>
@@ -446,85 +527,28 @@
     <t>0,25%</t>
   </si>
   <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
   </si>
   <si>
     <t>70,99%</t>
@@ -551,33 +575,36 @@
     <t>72,08%</t>
   </si>
   <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
     <t>Menores según si en los últimos 6 meses ha ido al dentista en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
     <t>96,97%</t>
   </si>
   <si>
@@ -608,31 +635,79 @@
     <t>0,59%</t>
   </si>
   <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
   </si>
   <si>
     <t>58,0%</t>
@@ -668,79 +743,31 @@
     <t>0,51%</t>
   </si>
   <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
   </si>
   <si>
     <t>71,71%</t>
@@ -770,36 +797,33 @@
     <t>72,81%</t>
   </si>
   <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
     <t>Menores según si en los últimos 6 meses ha ido al dentista en 2023 (Tasa respuesta: 98,49%)</t>
   </si>
   <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
     <t>9,94%</t>
   </si>
   <si>
@@ -854,28 +878,112 @@
     <t>85,92%</t>
   </si>
   <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
   </si>
   <si>
     <t>47,01%</t>
@@ -932,112 +1040,31 @@
     <t>15,81%</t>
   </si>
   <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
   </si>
   <si>
     <t>38,4%</t>
@@ -1086,33 +1113,6 @@
   </si>
   <si>
     <t>29,46%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
   </si>
 </sst>
 </file>
@@ -1504,7 +1504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CEA1801-348D-403E-90E7-9EAA97D1C007}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C400F27-0144-47B5-9A9F-17E81B13F1EC}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1622,10 +1622,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>318</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7">
-        <v>212867</v>
+        <v>10294</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1637,10 +1637,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>302</v>
+        <v>18</v>
       </c>
       <c r="I4" s="7">
-        <v>198302</v>
+        <v>11894</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1652,10 +1652,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>620</v>
+        <v>34</v>
       </c>
       <c r="N4" s="7">
-        <v>411169</v>
+        <v>22188</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1673,10 +1673,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>212867</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1688,82 +1688,82 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>198302</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>411169</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>10294</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>11894</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="M6" s="7">
-        <v>34</v>
-      </c>
-      <c r="N6" s="7">
-        <v>22188</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>35</v>
@@ -1828,10 +1828,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>235</v>
+        <v>114</v>
       </c>
       <c r="D8" s="7">
-        <v>155702</v>
+        <v>75234</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>38</v>
@@ -1843,10 +1843,10 @@
         <v>40</v>
       </c>
       <c r="H8" s="7">
-        <v>194</v>
+        <v>108</v>
       </c>
       <c r="I8" s="7">
-        <v>129705</v>
+        <v>74210</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>41</v>
@@ -1858,10 +1858,10 @@
         <v>43</v>
       </c>
       <c r="M8" s="7">
-        <v>429</v>
+        <v>222</v>
       </c>
       <c r="N8" s="7">
-        <v>285406</v>
+        <v>149443</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>44</v>
@@ -1879,97 +1879,97 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>142807</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>131012</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>412</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>273820</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>125796</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H10" s="7">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>135207</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M10" s="7">
-        <v>386</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>261004</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>58</v>
@@ -1981,10 +1981,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="D11" s="7">
-        <v>281498</v>
+        <v>218041</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -1996,10 +1996,10 @@
         <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>393</v>
+        <v>304</v>
       </c>
       <c r="I11" s="7">
-        <v>264912</v>
+        <v>205222</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -2011,10 +2011,10 @@
         <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>815</v>
+        <v>634</v>
       </c>
       <c r="N11" s="7">
-        <v>546410</v>
+        <v>423263</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -2034,10 +2034,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="D12" s="7">
-        <v>142807</v>
+        <v>125796</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>60</v>
@@ -2049,10 +2049,10 @@
         <v>62</v>
       </c>
       <c r="H12" s="7">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I12" s="7">
-        <v>131012</v>
+        <v>135207</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>63</v>
@@ -2064,10 +2064,10 @@
         <v>65</v>
       </c>
       <c r="M12" s="7">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="N12" s="7">
-        <v>273820</v>
+        <v>261004</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>66</v>
@@ -2085,97 +2085,97 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>155702</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>129705</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>429</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>285406</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>75234</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>74210</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>149443</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>80</v>
@@ -2187,10 +2187,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="D15" s="7">
-        <v>218041</v>
+        <v>281498</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -2202,10 +2202,10 @@
         <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>304</v>
+        <v>393</v>
       </c>
       <c r="I15" s="7">
-        <v>205222</v>
+        <v>264912</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -2217,10 +2217,10 @@
         <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>634</v>
+        <v>815</v>
       </c>
       <c r="N15" s="7">
-        <v>423263</v>
+        <v>546410</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -2240,10 +2240,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>769</v>
+        <v>317</v>
       </c>
       <c r="D16" s="7">
-        <v>511376</v>
+        <v>211324</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>81</v>
@@ -2255,10 +2255,10 @@
         <v>83</v>
       </c>
       <c r="H16" s="7">
-        <v>692</v>
+        <v>325</v>
       </c>
       <c r="I16" s="7">
-        <v>459019</v>
+        <v>221311</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>84</v>
@@ -2270,10 +2270,10 @@
         <v>86</v>
       </c>
       <c r="M16" s="7">
-        <v>1461</v>
+        <v>642</v>
       </c>
       <c r="N16" s="7">
-        <v>970395</v>
+        <v>432635</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>87</v>
@@ -2291,97 +2291,97 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>769</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>511376</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>692</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>459019</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>1461</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>970395</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>211324</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H18" s="7">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>221311</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M18" s="7">
-        <v>642</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>432635</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>101</v>
@@ -2454,7 +2454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBCF864-7D48-48EC-A451-02DD038FDE4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F600F5BB-CE53-4154-90C8-EC09B99796B0}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2572,10 +2572,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>323</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>228197</v>
+        <v>8898</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>103</v>
@@ -2587,10 +2587,10 @@
         <v>105</v>
       </c>
       <c r="H4" s="7">
-        <v>324</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>215758</v>
+        <v>9750</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>106</v>
@@ -2602,10 +2602,10 @@
         <v>108</v>
       </c>
       <c r="M4" s="7">
-        <v>647</v>
+        <v>27</v>
       </c>
       <c r="N4" s="7">
-        <v>443955</v>
+        <v>18648</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>109</v>
@@ -2623,97 +2623,97 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>323</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>228197</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>215758</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>647</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>443955</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>8898</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>9750</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M6" s="7">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>18648</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>122</v>
@@ -2778,10 +2778,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>231</v>
+        <v>128</v>
       </c>
       <c r="D8" s="7">
-        <v>156102</v>
+        <v>93548</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>123</v>
@@ -2793,10 +2793,10 @@
         <v>125</v>
       </c>
       <c r="H8" s="7">
-        <v>185</v>
+        <v>119</v>
       </c>
       <c r="I8" s="7">
-        <v>131478</v>
+        <v>84363</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>126</v>
@@ -2808,10 +2808,10 @@
         <v>128</v>
       </c>
       <c r="M8" s="7">
-        <v>416</v>
+        <v>247</v>
       </c>
       <c r="N8" s="7">
-        <v>287580</v>
+        <v>177911</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>129</v>
@@ -2829,100 +2829,100 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>147698</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>145109</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>292807</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>114956</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="H10" s="7">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>124933</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="M10" s="7">
-        <v>348</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>239889</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>143</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2931,10 +2931,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>399</v>
+        <v>334</v>
       </c>
       <c r="D11" s="7">
-        <v>271058</v>
+        <v>241246</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -2946,10 +2946,10 @@
         <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>365</v>
+        <v>321</v>
       </c>
       <c r="I11" s="7">
-        <v>256411</v>
+        <v>229472</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -2961,10 +2961,10 @@
         <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>764</v>
+        <v>655</v>
       </c>
       <c r="N11" s="7">
-        <v>527469</v>
+        <v>470718</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -2984,49 +2984,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="D12" s="7">
-        <v>147698</v>
+        <v>114956</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H12" s="7">
+        <v>180</v>
+      </c>
+      <c r="I12" s="7">
+        <v>124933</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H12" s="7">
-        <v>202</v>
-      </c>
-      <c r="I12" s="7">
-        <v>145109</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>348</v>
+      </c>
+      <c r="N12" s="7">
+        <v>239889</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="M12" s="7">
-        <v>408</v>
-      </c>
-      <c r="N12" s="7">
-        <v>292807</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3035,97 +3035,97 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>156102</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>23</v>
+        <v>152</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>131478</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>24</v>
+        <v>155</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>416</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>287580</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>93548</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>153</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>154</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="H14" s="7">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>84363</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>157</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M14" s="7">
-        <v>247</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>177911</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>161</v>
@@ -3137,10 +3137,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>334</v>
+        <v>399</v>
       </c>
       <c r="D15" s="7">
-        <v>241246</v>
+        <v>271058</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -3152,10 +3152,10 @@
         <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="I15" s="7">
-        <v>229472</v>
+        <v>256411</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -3167,10 +3167,10 @@
         <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>655</v>
+        <v>764</v>
       </c>
       <c r="N15" s="7">
-        <v>470718</v>
+        <v>527469</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -3190,25 +3190,25 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>760</v>
+        <v>308</v>
       </c>
       <c r="D16" s="7">
-        <v>531997</v>
+        <v>217403</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>162</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>163</v>
+        <v>45</v>
       </c>
       <c r="H16" s="7">
-        <v>711</v>
+        <v>314</v>
       </c>
       <c r="I16" s="7">
-        <v>492345</v>
+        <v>219046</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>164</v>
@@ -3220,10 +3220,10 @@
         <v>166</v>
       </c>
       <c r="M16" s="7">
-        <v>1471</v>
+        <v>622</v>
       </c>
       <c r="N16" s="7">
-        <v>1024342</v>
+        <v>436449</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>167</v>
@@ -3241,100 +3241,100 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>760</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>531997</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>21</v>
+        <v>170</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>90</v>
+        <v>171</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>711</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>492345</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>22</v>
+        <v>173</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>91</v>
+        <v>174</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>1471</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>1024342</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>22</v>
+        <v>176</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>92</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>217403</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>170</v>
+        <v>31</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>171</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="H18" s="7">
-        <v>314</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>219046</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>172</v>
+        <v>31</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>173</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>174</v>
+        <v>100</v>
       </c>
       <c r="M18" s="7">
-        <v>622</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>436449</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>175</v>
+        <v>31</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>176</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>177</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,7 +3404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B564816-7075-4769-A5AD-73BF49C77402}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A0941F-99EE-4DEE-B4D4-207122EBE180}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3522,10 +3522,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>311</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>206702</v>
+        <v>6461</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>179</v>
@@ -3537,10 +3537,10 @@
         <v>181</v>
       </c>
       <c r="H4" s="7">
-        <v>314</v>
+        <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>194010</v>
+        <v>7258</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>182</v>
@@ -3552,10 +3552,10 @@
         <v>184</v>
       </c>
       <c r="M4" s="7">
-        <v>625</v>
+        <v>22</v>
       </c>
       <c r="N4" s="7">
-        <v>400713</v>
+        <v>13718</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>185</v>
@@ -3573,100 +3573,100 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>311</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>206702</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>188</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>189</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>24</v>
+        <v>190</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>194010</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>191</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>192</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>625</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>400713</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>194</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>71</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>6461</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>189</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>191</v>
+        <v>34</v>
       </c>
       <c r="H6" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>7258</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>192</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>193</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M6" s="7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>13718</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>195</v>
+        <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>196</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>197</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,10 +3728,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="D8" s="7">
-        <v>163342</v>
+        <v>85965</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>198</v>
@@ -3743,10 +3743,10 @@
         <v>200</v>
       </c>
       <c r="H8" s="7">
-        <v>206</v>
+        <v>130</v>
       </c>
       <c r="I8" s="7">
-        <v>148007</v>
+        <v>86275</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>201</v>
@@ -3755,22 +3755,22 @@
         <v>202</v>
       </c>
       <c r="L8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="7">
+        <v>250</v>
+      </c>
+      <c r="N8" s="7">
+        <v>172240</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="M8" s="7">
-        <v>426</v>
-      </c>
-      <c r="N8" s="7">
-        <v>311348</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,100 +3779,100 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>164087</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>205</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>207</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>149058</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>208</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>313145</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>22</v>
+        <v>210</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>134</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>118287</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>209</v>
+        <v>31</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>210</v>
+        <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H10" s="7">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>119763</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="M10" s="7">
-        <v>330</v>
-      </c>
-      <c r="N10" s="7">
-        <v>238051</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,10 +3881,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D11" s="7">
-        <v>281629</v>
+        <v>250052</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -3896,10 +3896,10 @@
         <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="I11" s="7">
-        <v>267770</v>
+        <v>235333</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -3911,10 +3911,10 @@
         <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>756</v>
+        <v>723</v>
       </c>
       <c r="N11" s="7">
-        <v>549399</v>
+        <v>485385</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -3934,49 +3934,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>243</v>
+        <v>161</v>
       </c>
       <c r="D12" s="7">
-        <v>164087</v>
+        <v>118287</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H12" s="7">
+        <v>169</v>
+      </c>
+      <c r="I12" s="7">
+        <v>119763</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>330</v>
+      </c>
+      <c r="N12" s="7">
+        <v>238051</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="H12" s="7">
-        <v>230</v>
-      </c>
-      <c r="I12" s="7">
-        <v>149058</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="M12" s="7">
-        <v>473</v>
-      </c>
-      <c r="N12" s="7">
-        <v>313145</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3985,100 +3985,100 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>163342</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>21</v>
+        <v>223</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>22</v>
+        <v>224</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>225</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>148007</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>21</v>
+        <v>226</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>22</v>
+        <v>227</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>426</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>311348</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>22</v>
+        <v>230</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>85965</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>227</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>228</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H14" s="7">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>86275</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>230</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>231</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>172240</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>232</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>233</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,10 +4087,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D15" s="7">
-        <v>250052</v>
+        <v>281629</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -4102,10 +4102,10 @@
         <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="I15" s="7">
-        <v>235333</v>
+        <v>267770</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -4117,10 +4117,10 @@
         <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>723</v>
+        <v>756</v>
       </c>
       <c r="N15" s="7">
-        <v>485385</v>
+        <v>549399</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -4140,10 +4140,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>774</v>
+        <v>291</v>
       </c>
       <c r="D16" s="7">
-        <v>534131</v>
+        <v>210713</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>234</v>
@@ -4155,10 +4155,10 @@
         <v>236</v>
       </c>
       <c r="H16" s="7">
-        <v>750</v>
+        <v>311</v>
       </c>
       <c r="I16" s="7">
-        <v>491075</v>
+        <v>213296</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>237</v>
@@ -4170,10 +4170,10 @@
         <v>239</v>
       </c>
       <c r="M16" s="7">
-        <v>1524</v>
+        <v>602</v>
       </c>
       <c r="N16" s="7">
-        <v>1025207</v>
+        <v>424008</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>240</v>
@@ -4191,100 +4191,100 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>774</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>534131</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>21</v>
+        <v>243</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>244</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>90</v>
+        <v>245</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>491075</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>22</v>
+        <v>247</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>90</v>
+        <v>248</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>1524</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>1025207</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>21</v>
+        <v>249</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>92</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>291</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>210713</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>243</v>
+        <v>31</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>244</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>245</v>
+        <v>99</v>
       </c>
       <c r="H18" s="7">
-        <v>311</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>213296</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>246</v>
+        <v>31</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>247</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>248</v>
+        <v>99</v>
       </c>
       <c r="M18" s="7">
-        <v>602</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>424008</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>249</v>
+        <v>31</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>250</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>251</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,7 +4354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF72AE9-AA60-4A9C-A258-5792AE367222}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C957E4-AB07-4028-8EEA-185D40ACACB9}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4475,7 +4475,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="7">
-        <v>11629</v>
+        <v>11967</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>253</v>
@@ -4487,10 +4487,10 @@
         <v>255</v>
       </c>
       <c r="H4" s="7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I4" s="7">
-        <v>7205</v>
+        <v>8003</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>256</v>
@@ -4502,19 +4502,19 @@
         <v>258</v>
       </c>
       <c r="M4" s="7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N4" s="7">
-        <v>18835</v>
+        <v>19969</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>259</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4523,97 +4523,97 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7">
-        <v>93381</v>
+        <v>11629</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>16</v>
+      </c>
+      <c r="I5" s="7">
+        <v>7205</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="H5" s="7">
-        <v>165</v>
-      </c>
-      <c r="I5" s="7">
-        <v>86564</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>37</v>
+      </c>
+      <c r="N5" s="7">
+        <v>18835</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="M5" s="7">
-        <v>348</v>
-      </c>
-      <c r="N5" s="7">
-        <v>179945</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>21</v>
+        <v>183</v>
       </c>
       <c r="D6" s="7">
-        <v>11967</v>
+        <v>93381</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>165</v>
+      </c>
+      <c r="I6" s="7">
+        <v>86564</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="H6" s="7">
-        <v>14</v>
-      </c>
-      <c r="I6" s="7">
-        <v>8003</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>348</v>
+      </c>
+      <c r="N6" s="7">
+        <v>179945</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="M6" s="7">
-        <v>35</v>
-      </c>
-      <c r="N6" s="7">
-        <v>19969</v>
-      </c>
-      <c r="O6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>278</v>
@@ -4678,10 +4678,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>217</v>
+        <v>68</v>
       </c>
       <c r="D8" s="7">
-        <v>186892</v>
+        <v>53010</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>279</v>
@@ -4693,10 +4693,10 @@
         <v>281</v>
       </c>
       <c r="H8" s="7">
-        <v>222</v>
+        <v>80</v>
       </c>
       <c r="I8" s="7">
-        <v>175010</v>
+        <v>57320</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>282</v>
@@ -4708,10 +4708,10 @@
         <v>284</v>
       </c>
       <c r="M8" s="7">
-        <v>439</v>
+        <v>148</v>
       </c>
       <c r="N8" s="7">
-        <v>361902</v>
+        <v>110331</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>285</v>
@@ -4729,10 +4729,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="D9" s="7">
-        <v>53951</v>
+        <v>75846</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>288</v>
@@ -4744,10 +4744,10 @@
         <v>290</v>
       </c>
       <c r="H9" s="7">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="I9" s="7">
-        <v>44820</v>
+        <v>56529</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>291</v>
@@ -4759,10 +4759,10 @@
         <v>293</v>
       </c>
       <c r="M9" s="7">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="N9" s="7">
-        <v>98771</v>
+        <v>132376</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>294</v>
@@ -4777,13 +4777,13 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>184</v>
+        <v>102</v>
       </c>
       <c r="D10" s="7">
-        <v>156687</v>
+        <v>71115</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>297</v>
@@ -4795,10 +4795,10 @@
         <v>299</v>
       </c>
       <c r="H10" s="7">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="I10" s="7">
-        <v>126289</v>
+        <v>80880</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>300</v>
@@ -4810,10 +4810,10 @@
         <v>302</v>
       </c>
       <c r="M10" s="7">
-        <v>358</v>
+        <v>221</v>
       </c>
       <c r="N10" s="7">
-        <v>282975</v>
+        <v>151995</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>303</v>
@@ -4831,10 +4831,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>473</v>
+        <v>265</v>
       </c>
       <c r="D11" s="7">
-        <v>397529</v>
+        <v>199971</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -4846,10 +4846,10 @@
         <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>457</v>
+        <v>276</v>
       </c>
       <c r="I11" s="7">
-        <v>346119</v>
+        <v>194730</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -4861,10 +4861,10 @@
         <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>930</v>
+        <v>541</v>
       </c>
       <c r="N11" s="7">
-        <v>743648</v>
+        <v>394701</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -4884,10 +4884,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>95</v>
+        <v>184</v>
       </c>
       <c r="D12" s="7">
-        <v>75846</v>
+        <v>156687</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>306</v>
@@ -4899,10 +4899,10 @@
         <v>308</v>
       </c>
       <c r="H12" s="7">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="I12" s="7">
-        <v>56529</v>
+        <v>126289</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>309</v>
@@ -4914,10 +4914,10 @@
         <v>311</v>
       </c>
       <c r="M12" s="7">
-        <v>172</v>
+        <v>358</v>
       </c>
       <c r="N12" s="7">
-        <v>132376</v>
+        <v>282975</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>312</v>
@@ -4935,10 +4935,10 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>102</v>
+        <v>217</v>
       </c>
       <c r="D13" s="7">
-        <v>71115</v>
+        <v>186892</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>315</v>
@@ -4950,10 +4950,10 @@
         <v>317</v>
       </c>
       <c r="H13" s="7">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="I13" s="7">
-        <v>80880</v>
+        <v>175010</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>318</v>
@@ -4965,10 +4965,10 @@
         <v>320</v>
       </c>
       <c r="M13" s="7">
-        <v>221</v>
+        <v>439</v>
       </c>
       <c r="N13" s="7">
-        <v>151995</v>
+        <v>361902</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>321</v>
@@ -4983,13 +4983,13 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D14" s="7">
-        <v>53010</v>
+        <v>53951</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>324</v>
@@ -5001,10 +5001,10 @@
         <v>326</v>
       </c>
       <c r="H14" s="7">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="I14" s="7">
-        <v>57320</v>
+        <v>44820</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>327</v>
@@ -5016,10 +5016,10 @@
         <v>329</v>
       </c>
       <c r="M14" s="7">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="N14" s="7">
-        <v>110331</v>
+        <v>98771</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>330</v>
@@ -5037,10 +5037,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>265</v>
+        <v>473</v>
       </c>
       <c r="D15" s="7">
-        <v>199971</v>
+        <v>397529</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -5052,10 +5052,10 @@
         <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>276</v>
+        <v>457</v>
       </c>
       <c r="I15" s="7">
-        <v>194730</v>
+        <v>346119</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -5067,10 +5067,10 @@
         <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>541</v>
+        <v>930</v>
       </c>
       <c r="N15" s="7">
-        <v>394701</v>
+        <v>743648</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -5090,10 +5090,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>333</v>
+        <v>273</v>
       </c>
       <c r="D16" s="7">
-        <v>274367</v>
+        <v>221663</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>333</v>
@@ -5105,10 +5105,10 @@
         <v>335</v>
       </c>
       <c r="H16" s="7">
-        <v>315</v>
+        <v>268</v>
       </c>
       <c r="I16" s="7">
-        <v>238745</v>
+        <v>191612</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>336</v>
@@ -5120,10 +5120,10 @@
         <v>338</v>
       </c>
       <c r="M16" s="7">
-        <v>648</v>
+        <v>541</v>
       </c>
       <c r="N16" s="7">
-        <v>513112</v>
+        <v>413275</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>339</v>
@@ -5141,10 +5141,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="D17" s="7">
-        <v>218446</v>
+        <v>274367</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>342</v>
@@ -5156,10 +5156,10 @@
         <v>344</v>
       </c>
       <c r="H17" s="7">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="I17" s="7">
-        <v>212264</v>
+        <v>238745</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>345</v>
@@ -5171,70 +5171,70 @@
         <v>347</v>
       </c>
       <c r="M17" s="7">
-        <v>702</v>
+        <v>648</v>
       </c>
       <c r="N17" s="7">
-        <v>430710</v>
+        <v>513112</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>160</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>273</v>
+        <v>357</v>
       </c>
       <c r="D18" s="7">
-        <v>221663</v>
+        <v>218446</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H18" s="7">
-        <v>268</v>
+        <v>345</v>
       </c>
       <c r="I18" s="7">
-        <v>191612</v>
+        <v>212264</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M18" s="7">
-        <v>541</v>
+        <v>702</v>
       </c>
       <c r="N18" s="7">
-        <v>413275</v>
+        <v>430710</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>355</v>
+        <v>310</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>357</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP19-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75B10471-7B16-456A-8669-B337735E19BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53F2BBB5-8863-4EF7-BF1E-BCD2B7D55C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{AC982575-EC98-47BB-9278-7DC2085C5758}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FD9D2414-2056-4ABB-87BB-9A9DFDA69A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="429">
   <si>
     <t>Menores según si en los últimos 6 meses ha ido al dentista en 2007 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -68,1051 +68,1264 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>No, nunca ha ido al/la dentista</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2023 (Tasa respuesta: 98,49%)</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
   </si>
   <si>
     <t>3,48%</t>
   </si>
   <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>No, nunca ha ido al/la dentista</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2023 (Tasa respuesta: 98,49%)</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
   </si>
   <si>
     <t>32,79%</t>
   </si>
   <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
   </si>
   <si>
     <t>31,74%</t>
   </si>
   <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
   </si>
   <si>
     <t>31,02%</t>
   </si>
   <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
   </si>
   <si>
     <t>30,45%</t>
   </si>
   <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1336,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1219,39 +1432,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1303,7 +1516,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1414,13 +1627,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1429,6 +1635,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1493,19 +1706,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C400F27-0144-47B5-9A9F-17E81B13F1EC}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18901955-E13A-4076-B275-5571B1A5254B}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1622,10 +1855,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>10294</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1637,136 +1870,136 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>11894</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>34</v>
-      </c>
-      <c r="N4" s="7">
-        <v>22188</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>181</v>
+      </c>
+      <c r="D5" s="7">
+        <v>120730</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>161</v>
+      </c>
+      <c r="I5" s="7">
+        <v>105325</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>318</v>
-      </c>
-      <c r="D5" s="7">
-        <v>212867</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
+        <v>342</v>
+      </c>
+      <c r="N5" s="7">
+        <v>226055</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>302</v>
-      </c>
-      <c r="I5" s="7">
-        <v>198302</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>620</v>
-      </c>
-      <c r="N5" s="7">
-        <v>411169</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>650</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>846</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="7">
+        <v>2</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1496</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1775,204 +2008,204 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>334</v>
+        <v>182</v>
       </c>
       <c r="D7" s="7">
-        <v>223161</v>
+        <v>121380</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H7" s="7">
-        <v>320</v>
+        <v>162</v>
       </c>
       <c r="I7" s="7">
-        <v>210196</v>
+        <v>106171</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M7" s="7">
-        <v>654</v>
+        <v>344</v>
       </c>
       <c r="N7" s="7">
-        <v>433357</v>
+        <v>227551</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>75234</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>74210</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="M8" s="7">
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>149443</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>216</v>
+        <v>300</v>
       </c>
       <c r="D9" s="7">
-        <v>142807</v>
+        <v>199590</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H9" s="7">
-        <v>196</v>
+        <v>296</v>
       </c>
       <c r="I9" s="7">
-        <v>131012</v>
+        <v>196543</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="M9" s="7">
-        <v>412</v>
+        <v>596</v>
       </c>
       <c r="N9" s="7">
-        <v>273820</v>
+        <v>396133</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>54166</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>56662</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>110828</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,204 +2214,204 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="D11" s="7">
-        <v>218041</v>
+        <v>253756</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H11" s="7">
-        <v>304</v>
+        <v>379</v>
       </c>
       <c r="I11" s="7">
-        <v>205222</v>
+        <v>253205</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M11" s="7">
-        <v>634</v>
+        <v>761</v>
       </c>
       <c r="N11" s="7">
-        <v>423263</v>
+        <v>506961</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>125796</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H12" s="7">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>135207</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="M12" s="7">
-        <v>386</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>261004</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>235</v>
+        <v>108</v>
       </c>
       <c r="D13" s="7">
-        <v>155702</v>
+        <v>71689</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="H13" s="7">
-        <v>194</v>
+        <v>90</v>
       </c>
       <c r="I13" s="7">
-        <v>129705</v>
+        <v>58896</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="M13" s="7">
-        <v>429</v>
+        <v>198</v>
       </c>
       <c r="N13" s="7">
-        <v>285406</v>
+        <v>130585</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>69826</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>68652</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>138478</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2187,204 +2420,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>422</v>
+        <v>212</v>
       </c>
       <c r="D15" s="7">
-        <v>281498</v>
+        <v>141515</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H15" s="7">
-        <v>393</v>
+        <v>191</v>
       </c>
       <c r="I15" s="7">
-        <v>264912</v>
+        <v>127548</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M15" s="7">
-        <v>815</v>
+        <v>403</v>
       </c>
       <c r="N15" s="7">
-        <v>546410</v>
+        <v>269063</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>211324</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H16" s="7">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>221311</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="M16" s="7">
-        <v>642</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>432635</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>769</v>
+        <v>180</v>
       </c>
       <c r="D17" s="7">
-        <v>511376</v>
+        <v>119367</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H17" s="7">
-        <v>692</v>
+        <v>145</v>
       </c>
       <c r="I17" s="7">
-        <v>459019</v>
+        <v>98255</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="M17" s="7">
-        <v>1461</v>
+        <v>325</v>
       </c>
       <c r="N17" s="7">
-        <v>970395</v>
+        <v>217622</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>86682</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>95151</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>181833</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2393,55 +2626,267 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>310</v>
+      </c>
+      <c r="D19" s="7">
+        <v>206049</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="7">
+        <v>285</v>
+      </c>
+      <c r="I19" s="7">
+        <v>193406</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" s="7">
+        <v>595</v>
+      </c>
+      <c r="N19" s="7">
+        <v>399455</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7">
+        <v>769</v>
+      </c>
+      <c r="D21" s="7">
+        <v>511376</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="7">
+        <v>692</v>
+      </c>
+      <c r="I21" s="7">
+        <v>459019</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M21" s="7">
+        <v>1461</v>
+      </c>
+      <c r="N21" s="7">
+        <v>970395</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="7">
+        <v>317</v>
+      </c>
+      <c r="D22" s="7">
+        <v>211324</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H22" s="7">
+        <v>325</v>
+      </c>
+      <c r="I22" s="7">
+        <v>221311</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M22" s="7">
+        <v>642</v>
+      </c>
+      <c r="N22" s="7">
+        <v>432635</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
         <v>1086</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D23" s="7">
         <v>722700</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="E23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="7">
         <v>1017</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I23" s="7">
         <v>680330</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M19" s="7">
+      <c r="J23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" s="7">
         <v>2103</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N23" s="7">
         <v>1403030</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>36</v>
+      <c r="O23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2454,8 +2899,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F600F5BB-CE53-4154-90C8-EC09B99796B0}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC87155A-0187-479D-BBCF-30EEC8C33C1B}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2471,7 +2916,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2572,151 +3017,151 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7">
-        <v>8898</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="H4" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>9750</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="M4" s="7">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>18648</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>323</v>
+        <v>203</v>
       </c>
       <c r="D5" s="7">
-        <v>228197</v>
+        <v>143252</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="I5" s="7">
-        <v>215758</v>
+        <v>144853</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="M5" s="7">
-        <v>647</v>
+        <v>419</v>
       </c>
       <c r="N5" s="7">
-        <v>443955</v>
+        <v>288106</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>669</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>1908</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>2576</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2725,204 +3170,204 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>335</v>
+        <v>204</v>
       </c>
       <c r="D7" s="7">
-        <v>237095</v>
+        <v>143921</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H7" s="7">
-        <v>339</v>
+        <v>219</v>
       </c>
       <c r="I7" s="7">
-        <v>225508</v>
+        <v>146761</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M7" s="7">
-        <v>674</v>
+        <v>423</v>
       </c>
       <c r="N7" s="7">
-        <v>462603</v>
+        <v>290682</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>93548</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="H8" s="7">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>84363</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="M8" s="7">
-        <v>247</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>177911</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>206</v>
+        <v>278</v>
       </c>
       <c r="D9" s="7">
-        <v>147698</v>
+        <v>197750</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="H9" s="7">
-        <v>202</v>
+        <v>263</v>
       </c>
       <c r="I9" s="7">
-        <v>145109</v>
+        <v>181917</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="M9" s="7">
-        <v>408</v>
+        <v>541</v>
       </c>
       <c r="N9" s="7">
-        <v>292807</v>
+        <v>379668</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>70497</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>54333</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>31</v>
+        <v>153</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>124829</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>31</v>
+        <v>156</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>32</v>
+        <v>157</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2931,204 +3376,204 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="D11" s="7">
-        <v>241246</v>
+        <v>268247</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H11" s="7">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="I11" s="7">
-        <v>229472</v>
+        <v>236250</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M11" s="7">
-        <v>655</v>
+        <v>713</v>
       </c>
       <c r="N11" s="7">
-        <v>470718</v>
+        <v>504497</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>114956</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="H12" s="7">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>124933</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="M12" s="7">
-        <v>348</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>239889</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="D13" s="7">
-        <v>156102</v>
+        <v>85689</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="H13" s="7">
-        <v>185</v>
+        <v>105</v>
       </c>
       <c r="I13" s="7">
-        <v>131478</v>
+        <v>74695</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="M13" s="7">
-        <v>416</v>
+        <v>227</v>
       </c>
       <c r="N13" s="7">
-        <v>287580</v>
+        <v>160384</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>72882</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>32</v>
+        <v>171</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>82348</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>155230</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>31</v>
+        <v>176</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,204 +3582,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>399</v>
+        <v>228</v>
       </c>
       <c r="D15" s="7">
-        <v>271058</v>
+        <v>158571</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H15" s="7">
-        <v>365</v>
+        <v>223</v>
       </c>
       <c r="I15" s="7">
-        <v>256411</v>
+        <v>157043</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M15" s="7">
-        <v>764</v>
+        <v>451</v>
       </c>
       <c r="N15" s="7">
-        <v>527469</v>
+        <v>315614</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>217403</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="H16" s="7">
-        <v>314</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>219046</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="M16" s="7">
-        <v>622</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>436449</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>760</v>
+        <v>157</v>
       </c>
       <c r="D17" s="7">
-        <v>531997</v>
+        <v>105306</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>55</v>
+        <v>183</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="H17" s="7">
-        <v>711</v>
+        <v>127</v>
       </c>
       <c r="I17" s="7">
-        <v>492345</v>
+        <v>90879</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="M17" s="7">
-        <v>1471</v>
+        <v>284</v>
       </c>
       <c r="N17" s="7">
-        <v>1024342</v>
+        <v>196186</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>73356</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>31</v>
+        <v>191</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>80458</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>31</v>
+        <v>194</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>195</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>100</v>
+        <v>196</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>153813</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>31</v>
+        <v>197</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>198</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>101</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,55 +3788,267 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>263</v>
+      </c>
+      <c r="D19" s="7">
+        <v>178662</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="7">
+        <v>243</v>
+      </c>
+      <c r="I19" s="7">
+        <v>171337</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" s="7">
+        <v>506</v>
+      </c>
+      <c r="N19" s="7">
+        <v>349999</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7">
+        <v>760</v>
+      </c>
+      <c r="D21" s="7">
+        <v>531997</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H21" s="7">
+        <v>711</v>
+      </c>
+      <c r="I21" s="7">
+        <v>492345</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="M21" s="7">
+        <v>1471</v>
+      </c>
+      <c r="N21" s="7">
+        <v>1024342</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="7">
+        <v>308</v>
+      </c>
+      <c r="D22" s="7">
+        <v>217403</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H22" s="7">
+        <v>314</v>
+      </c>
+      <c r="I22" s="7">
+        <v>219046</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="M22" s="7">
+        <v>622</v>
+      </c>
+      <c r="N22" s="7">
+        <v>436449</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
         <v>1068</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D23" s="7">
         <v>749400</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="E23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="7">
         <v>1025</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I23" s="7">
         <v>711391</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M19" s="7">
+      <c r="J23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" s="7">
         <v>2093</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N23" s="7">
         <v>1460791</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>36</v>
+      <c r="O23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3404,8 +4061,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A0941F-99EE-4DEE-B4D4-207122EBE180}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51263C05-7C7D-49B7-B7C5-1EC0579019D7}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3421,7 +4078,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3522,121 +4179,121 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>6461</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="7">
-        <v>7258</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>183</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="M4" s="7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>13718</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>185</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>187</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>311</v>
+        <v>186</v>
       </c>
       <c r="D5" s="7">
-        <v>206702</v>
+        <v>123530</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>314</v>
+        <v>211</v>
       </c>
       <c r="I5" s="7">
-        <v>194010</v>
+        <v>131654</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>191</v>
+        <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>193</v>
+        <v>31</v>
       </c>
       <c r="M5" s="7">
-        <v>625</v>
+        <v>397</v>
       </c>
       <c r="N5" s="7">
-        <v>400713</v>
+        <v>255184</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>196</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>634</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>34</v>
+        <v>226</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3645,28 +4302,28 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>634</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>58</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,204 +4332,204 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>321</v>
+        <v>187</v>
       </c>
       <c r="D7" s="7">
-        <v>213163</v>
+        <v>124164</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H7" s="7">
-        <v>326</v>
+        <v>211</v>
       </c>
       <c r="I7" s="7">
-        <v>201268</v>
+        <v>131654</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M7" s="7">
-        <v>647</v>
+        <v>398</v>
       </c>
       <c r="N7" s="7">
-        <v>414431</v>
+        <v>255818</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>85965</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>198</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>199</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>200</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>86275</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>228</v>
       </c>
       <c r="M8" s="7">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>172240</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>204</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>243</v>
+        <v>300</v>
       </c>
       <c r="D9" s="7">
-        <v>164087</v>
+        <v>201650</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>205</v>
+        <v>42</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="H9" s="7">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="I9" s="7">
-        <v>149058</v>
+        <v>164487</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>232</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="M9" s="7">
-        <v>473</v>
+        <v>561</v>
       </c>
       <c r="N9" s="7">
-        <v>313145</v>
+        <v>366137</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>56411</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>236</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>46030</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>31</v>
+        <v>238</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>32</v>
+        <v>239</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>102441</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>32</v>
+        <v>241</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,204 +4538,204 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D11" s="7">
-        <v>250052</v>
+        <v>258061</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H11" s="7">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="I11" s="7">
-        <v>235333</v>
+        <v>210517</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M11" s="7">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="N11" s="7">
-        <v>485385</v>
+        <v>468578</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>118287</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>214</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="H12" s="7">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>119763</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>217</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="M12" s="7">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>238051</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>220</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>220</v>
+        <v>144</v>
       </c>
       <c r="D13" s="7">
-        <v>163342</v>
+        <v>102140</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="H13" s="7">
-        <v>206</v>
+        <v>152</v>
       </c>
       <c r="I13" s="7">
-        <v>148007</v>
+        <v>105980</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>226</v>
+        <v>85</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="M13" s="7">
-        <v>426</v>
+        <v>296</v>
       </c>
       <c r="N13" s="7">
-        <v>311348</v>
+        <v>208120</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>86432</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>253</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>32</v>
+        <v>254</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>82919</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>169351</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>31</v>
+        <v>258</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>32</v>
+        <v>259</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>161</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,204 +4744,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="D15" s="7">
-        <v>281629</v>
+        <v>188572</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H15" s="7">
-        <v>375</v>
+        <v>272</v>
       </c>
       <c r="I15" s="7">
-        <v>267770</v>
+        <v>188899</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M15" s="7">
-        <v>756</v>
+        <v>535</v>
       </c>
       <c r="N15" s="7">
-        <v>549399</v>
+        <v>377471</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>291</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>210713</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>234</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="H16" s="7">
-        <v>311</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>213296</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>237</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>238</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="M16" s="7">
-        <v>602</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>424008</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>240</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>241</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>774</v>
+        <v>144</v>
       </c>
       <c r="D17" s="7">
-        <v>534131</v>
+        <v>106811</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="H17" s="7">
-        <v>750</v>
+        <v>126</v>
       </c>
       <c r="I17" s="7">
-        <v>491075</v>
+        <v>88954</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="M17" s="7">
-        <v>1524</v>
+        <v>270</v>
       </c>
       <c r="N17" s="7">
-        <v>1025207</v>
+        <v>195765</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>67237</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>274</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>99</v>
+        <v>275</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>84347</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>31</v>
+        <v>276</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>277</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>99</v>
+        <v>278</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>151583</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>31</v>
+        <v>279</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>280</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>101</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,55 +4950,267 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>235</v>
+      </c>
+      <c r="D19" s="7">
+        <v>174048</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="7">
+        <v>246</v>
+      </c>
+      <c r="I19" s="7">
+        <v>173301</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" s="7">
+        <v>481</v>
+      </c>
+      <c r="N19" s="7">
+        <v>347348</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7">
+        <v>774</v>
+      </c>
+      <c r="D21" s="7">
+        <v>534131</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H21" s="7">
+        <v>750</v>
+      </c>
+      <c r="I21" s="7">
+        <v>491075</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="M21" s="7">
+        <v>1524</v>
+      </c>
+      <c r="N21" s="7">
+        <v>1025207</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="7">
+        <v>291</v>
+      </c>
+      <c r="D22" s="7">
+        <v>210713</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H22" s="7">
+        <v>311</v>
+      </c>
+      <c r="I22" s="7">
+        <v>213296</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="M22" s="7">
+        <v>602</v>
+      </c>
+      <c r="N22" s="7">
+        <v>424008</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
         <v>1065</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D23" s="7">
         <v>744844</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="E23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="7">
         <v>1061</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I23" s="7">
         <v>704371</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M19" s="7">
+      <c r="J23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" s="7">
         <v>2126</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N23" s="7">
         <v>1449215</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>36</v>
+      <c r="O23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4354,8 +5223,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C957E4-AB07-4028-8EEA-185D40ACACB9}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E44487-CA08-4DB7-8B4D-513E61A02367}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4371,7 +5240,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>300</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4472,151 +5341,151 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="D4" s="7">
-        <v>11967</v>
+        <v>51426</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>253</v>
+        <v>301</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>254</v>
+        <v>302</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>255</v>
+        <v>303</v>
       </c>
       <c r="H4" s="7">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="I4" s="7">
-        <v>8003</v>
+        <v>51452</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>256</v>
+        <v>304</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>257</v>
+        <v>305</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>258</v>
+        <v>306</v>
       </c>
       <c r="M4" s="7">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="N4" s="7">
-        <v>19969</v>
+        <v>102878</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>105</v>
+        <v>308</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>260</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>11629</v>
+        <v>4632</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>261</v>
+        <v>310</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>262</v>
+        <v>311</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>263</v>
+        <v>312</v>
       </c>
       <c r="H5" s="7">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>7205</v>
+        <v>2477</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>264</v>
+        <v>313</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>265</v>
+        <v>314</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>266</v>
+        <v>315</v>
       </c>
       <c r="M5" s="7">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="N5" s="7">
-        <v>18835</v>
+        <v>7109</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>267</v>
+        <v>316</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>268</v>
+        <v>317</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>269</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
-        <v>183</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>93381</v>
+        <v>2023</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>270</v>
+        <v>319</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>271</v>
+        <v>219</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>272</v>
+        <v>320</v>
       </c>
       <c r="H6" s="7">
-        <v>165</v>
+        <v>4</v>
       </c>
       <c r="I6" s="7">
-        <v>86564</v>
+        <v>2618</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>273</v>
+        <v>321</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>275</v>
+        <v>323</v>
       </c>
       <c r="M6" s="7">
-        <v>348</v>
+        <v>7</v>
       </c>
       <c r="N6" s="7">
-        <v>179945</v>
+        <v>4642</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>276</v>
+        <v>324</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>277</v>
+        <v>325</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>278</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4625,204 +5494,204 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>225</v>
+        <v>115</v>
       </c>
       <c r="D7" s="7">
-        <v>116977</v>
+        <v>58081</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H7" s="7">
-        <v>195</v>
+        <v>108</v>
       </c>
       <c r="I7" s="7">
-        <v>101772</v>
+        <v>56548</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M7" s="7">
-        <v>420</v>
+        <v>223</v>
       </c>
       <c r="N7" s="7">
-        <v>218749</v>
+        <v>114629</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="D8" s="7">
-        <v>53010</v>
+        <v>93025</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>279</v>
+        <v>70</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>280</v>
+        <v>327</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>281</v>
+        <v>328</v>
       </c>
       <c r="H8" s="7">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="I8" s="7">
-        <v>57320</v>
+        <v>86047</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>282</v>
+        <v>329</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>283</v>
+        <v>330</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>284</v>
+        <v>331</v>
       </c>
       <c r="M8" s="7">
-        <v>148</v>
+        <v>302</v>
       </c>
       <c r="N8" s="7">
-        <v>110331</v>
+        <v>179072</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>285</v>
+        <v>332</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>286</v>
+        <v>333</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>287</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="D9" s="7">
-        <v>75846</v>
+        <v>45971</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>288</v>
+        <v>335</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>289</v>
+        <v>336</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>290</v>
+        <v>337</v>
       </c>
       <c r="H9" s="7">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="I9" s="7">
-        <v>56529</v>
+        <v>31728</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>291</v>
+        <v>338</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>292</v>
+        <v>339</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="M9" s="7">
-        <v>172</v>
+        <v>113</v>
       </c>
       <c r="N9" s="7">
-        <v>132376</v>
+        <v>77699</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="D10" s="7">
-        <v>71115</v>
+        <v>33839</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="H10" s="7">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="I10" s="7">
-        <v>80880</v>
+        <v>37062</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>300</v>
+        <v>347</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="M10" s="7">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="N10" s="7">
-        <v>151995</v>
+        <v>70901</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>305</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,204 +5700,204 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="D11" s="7">
-        <v>199971</v>
+        <v>172835</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H11" s="7">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="I11" s="7">
-        <v>194730</v>
+        <v>154837</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M11" s="7">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="N11" s="7">
-        <v>394701</v>
+        <v>327672</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>184</v>
+        <v>46</v>
       </c>
       <c r="D12" s="7">
-        <v>156687</v>
+        <v>36410</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>306</v>
+        <v>353</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="H12" s="7">
-        <v>174</v>
+        <v>62</v>
       </c>
       <c r="I12" s="7">
-        <v>126289</v>
+        <v>46147</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="M12" s="7">
-        <v>358</v>
+        <v>108</v>
       </c>
       <c r="N12" s="7">
-        <v>282975</v>
+        <v>82557</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>313</v>
+        <v>360</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>314</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>217</v>
+        <v>90</v>
       </c>
       <c r="D13" s="7">
-        <v>186892</v>
+        <v>77517</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>316</v>
+        <v>362</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>317</v>
+        <v>363</v>
       </c>
       <c r="H13" s="7">
-        <v>222</v>
+        <v>96</v>
       </c>
       <c r="I13" s="7">
-        <v>175010</v>
+        <v>73259</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>319</v>
+        <v>365</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>320</v>
+        <v>366</v>
       </c>
       <c r="M13" s="7">
-        <v>439</v>
+        <v>186</v>
       </c>
       <c r="N13" s="7">
-        <v>361902</v>
+        <v>150777</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>321</v>
+        <v>367</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>322</v>
+        <v>368</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>323</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="D14" s="7">
-        <v>53951</v>
+        <v>85391</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>324</v>
+        <v>370</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>325</v>
+        <v>371</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>326</v>
+        <v>372</v>
       </c>
       <c r="H14" s="7">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="I14" s="7">
-        <v>44820</v>
+        <v>52446</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>328</v>
+        <v>374</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>329</v>
+        <v>375</v>
       </c>
       <c r="M14" s="7">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="N14" s="7">
-        <v>98771</v>
+        <v>137836</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>330</v>
+        <v>376</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>331</v>
+        <v>377</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,204 +5906,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>473</v>
+        <v>239</v>
       </c>
       <c r="D15" s="7">
-        <v>397529</v>
+        <v>199318</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H15" s="7">
-        <v>457</v>
+        <v>228</v>
       </c>
       <c r="I15" s="7">
-        <v>346119</v>
+        <v>171852</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M15" s="7">
-        <v>930</v>
+        <v>467</v>
       </c>
       <c r="N15" s="7">
-        <v>743648</v>
+        <v>371170</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>273</v>
+        <v>51</v>
       </c>
       <c r="D16" s="7">
-        <v>221663</v>
+        <v>37586</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>333</v>
+        <v>379</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>334</v>
+        <v>380</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>335</v>
+        <v>381</v>
       </c>
       <c r="H16" s="7">
-        <v>268</v>
+        <v>38</v>
       </c>
       <c r="I16" s="7">
-        <v>191612</v>
+        <v>28618</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>336</v>
+        <v>382</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>338</v>
+        <v>384</v>
       </c>
       <c r="M16" s="7">
-        <v>541</v>
+        <v>89</v>
       </c>
       <c r="N16" s="7">
-        <v>413275</v>
+        <v>66204</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>339</v>
+        <v>385</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>340</v>
+        <v>386</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>341</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>333</v>
+        <v>171</v>
       </c>
       <c r="D17" s="7">
-        <v>274367</v>
+        <v>146247</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>342</v>
+        <v>388</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>343</v>
+        <v>389</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>344</v>
+        <v>390</v>
       </c>
       <c r="H17" s="7">
-        <v>315</v>
+        <v>165</v>
       </c>
       <c r="I17" s="7">
-        <v>238745</v>
+        <v>131280</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>345</v>
+        <v>391</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>346</v>
+        <v>392</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>347</v>
+        <v>393</v>
       </c>
       <c r="M17" s="7">
-        <v>648</v>
+        <v>336</v>
       </c>
       <c r="N17" s="7">
-        <v>513112</v>
+        <v>277527</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>348</v>
+        <v>394</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>349</v>
+        <v>395</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>350</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
-        <v>357</v>
+        <v>114</v>
       </c>
       <c r="D18" s="7">
-        <v>218446</v>
+        <v>100410</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>351</v>
+        <v>397</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>352</v>
+        <v>110</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>353</v>
+        <v>398</v>
       </c>
       <c r="H18" s="7">
-        <v>345</v>
+        <v>138</v>
       </c>
       <c r="I18" s="7">
-        <v>212264</v>
+        <v>99486</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>356</v>
+        <v>84</v>
       </c>
       <c r="M18" s="7">
-        <v>702</v>
+        <v>252</v>
       </c>
       <c r="N18" s="7">
-        <v>430710</v>
+        <v>199896</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>310</v>
+        <v>401</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5243,55 +6112,267 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>336</v>
+      </c>
+      <c r="D19" s="7">
+        <v>284243</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="7">
+        <v>341</v>
+      </c>
+      <c r="I19" s="7">
+        <v>259384</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" s="7">
+        <v>677</v>
+      </c>
+      <c r="N19" s="7">
+        <v>543627</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>357</v>
+      </c>
+      <c r="D20" s="7">
+        <v>218446</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="H20" s="7">
+        <v>345</v>
+      </c>
+      <c r="I20" s="7">
+        <v>212264</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="M20" s="7">
+        <v>702</v>
+      </c>
+      <c r="N20" s="7">
+        <v>430710</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7">
+        <v>333</v>
+      </c>
+      <c r="D21" s="7">
+        <v>274367</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="H21" s="7">
+        <v>315</v>
+      </c>
+      <c r="I21" s="7">
+        <v>238745</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="M21" s="7">
+        <v>648</v>
+      </c>
+      <c r="N21" s="7">
+        <v>513112</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="7">
+        <v>273</v>
+      </c>
+      <c r="D22" s="7">
+        <v>221663</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="H22" s="7">
+        <v>268</v>
+      </c>
+      <c r="I22" s="7">
+        <v>191612</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="M22" s="7">
+        <v>541</v>
+      </c>
+      <c r="N22" s="7">
+        <v>413275</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
         <v>963</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D23" s="7">
         <v>714477</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="E23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="7">
         <v>928</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I23" s="7">
         <v>642621</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M19" s="7">
+      <c r="J23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" s="7">
         <v>1891</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N23" s="7">
         <v>1357098</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>36</v>
+      <c r="O23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP19-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53F2BBB5-8863-4EF7-BF1E-BCD2B7D55C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{477CBC20-F640-40EE-BFDB-C22DE8834271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FD9D2414-2056-4ABB-87BB-9A9DFDA69A7A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7A2B1D24-52B7-4ECD-BC43-2AF194171FD9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="430">
   <si>
     <t>Menores según si en los últimos 6 meses ha ido al dentista en 2007 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -95,7 +95,7 @@
     <t>99,46%</t>
   </si>
   <si>
-    <t>97,84%</t>
+    <t>96,55%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -104,13 +104,13 @@
     <t>99,2%</t>
   </si>
   <si>
-    <t>95,25%</t>
+    <t>95,43%</t>
   </si>
   <si>
     <t>99,34%</t>
   </si>
   <si>
-    <t>97,45%</t>
+    <t>97,74%</t>
   </si>
   <si>
     <t>Sí</t>
@@ -119,19 +119,19 @@
     <t>0,54%</t>
   </si>
   <si>
-    <t>2,16%</t>
+    <t>3,45%</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>4,75%</t>
+    <t>4,57%</t>
   </si>
   <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>2,55%</t>
+    <t>2,26%</t>
   </si>
   <si>
     <t>100%</t>
@@ -152,55 +152,55 @@
     <t>78,65%</t>
   </si>
   <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
   </si>
   <si>
     <t>77,62%</t>
   </si>
   <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
   </si>
   <si>
     <t>78,14%</t>
   </si>
   <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
   </si>
   <si>
     <t>21,35%</t>
   </si>
   <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
   </si>
   <si>
     <t>22,38%</t>
   </si>
   <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
   </si>
   <si>
     <t>21,86%</t>
   </si>
   <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -218,55 +218,55 @@
     <t>50,66%</t>
   </si>
   <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
   </si>
   <si>
     <t>46,18%</t>
   </si>
   <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
   </si>
   <si>
     <t>48,53%</t>
   </si>
   <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
   </si>
   <si>
     <t>49,34%</t>
   </si>
   <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
   </si>
   <si>
     <t>53,82%</t>
   </si>
   <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
   </si>
   <si>
     <t>51,47%</t>
   </si>
   <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -284,1048 +284,1051 @@
     <t>57,93%</t>
   </si>
   <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
   </si>
   <si>
     <t>50,8%</t>
   </si>
   <si>
-    <t>44,54%</t>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
   </si>
   <si>
     <t>56,1%</t>
   </si>
   <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
   </si>
   <si>
     <t>43,9%</t>
   </si>
   <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2023 (Tasa respuesta: 98,49%)</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
   </si>
   <si>
     <t>29,51%</t>
   </si>
   <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2023 (Tasa respuesta: 98,49%)</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
     <t>38,35%</t>
   </si>
   <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
     <t>33,0%</t>
   </si>
   <si>
-    <t>36,77%</t>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
   </si>
   <si>
     <t>32,79%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
   </si>
 </sst>
 </file>
@@ -1737,7 +1740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18901955-E13A-4076-B275-5571B1A5254B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77EBC0D-6EDE-4C46-8867-FDEBE1787599}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2899,7 +2902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC87155A-0187-479D-BBCF-30EEC8C33C1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3C2486-6FF7-4119-A11E-A3B928111085}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3904,7 +3907,7 @@
         <v>201</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>202</v>
+        <v>141</v>
       </c>
       <c r="H21" s="7">
         <v>711</v>
@@ -3913,13 +3916,13 @@
         <v>492345</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M21" s="7">
         <v>1471</v>
@@ -3928,13 +3931,13 @@
         <v>1024342</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,13 +3952,13 @@
         <v>217403</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H22" s="7">
         <v>314</v>
@@ -3964,13 +3967,13 @@
         <v>219046</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M22" s="7">
         <v>622</v>
@@ -3979,13 +3982,13 @@
         <v>436449</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,7 +4064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51263C05-7C7D-49B7-B7C5-1EC0579019D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067D5305-A068-436F-9355-DA2861D365BF}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4078,7 +4081,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4191,7 +4194,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4206,7 +4209,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4236,10 +4239,10 @@
         <v>123530</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4254,7 +4257,7 @@
         <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>31</v>
@@ -4266,10 +4269,10 @@
         <v>255184</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -4293,7 +4296,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4308,7 +4311,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -4323,7 +4326,7 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4412,7 +4415,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4445,10 +4448,10 @@
         <v>42</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H9" s="7">
         <v>261</v>
@@ -4457,13 +4460,13 @@
         <v>164487</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M9" s="7">
         <v>561</v>
@@ -4475,10 +4478,10 @@
         <v>42</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4496,10 +4499,10 @@
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -4508,13 +4511,13 @@
         <v>46030</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M10" s="7">
         <v>151</v>
@@ -4526,10 +4529,10 @@
         <v>51</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4618,7 +4621,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4633,7 +4636,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,13 +4651,13 @@
         <v>102140</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H13" s="7">
         <v>152</v>
@@ -4663,13 +4666,13 @@
         <v>105980</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>85</v>
+        <v>246</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M13" s="7">
         <v>296</v>
@@ -4678,13 +4681,13 @@
         <v>208120</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4699,13 +4702,13 @@
         <v>86432</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H14" s="7">
         <v>120</v>
@@ -4714,7 +4717,7 @@
         <v>82919</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>93</v>
+        <v>255</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>256</v>
@@ -4860,7 +4863,7 @@
         <v>265</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>266</v>
+        <v>102</v>
       </c>
       <c r="H17" s="7">
         <v>126</v>
@@ -4869,13 +4872,13 @@
         <v>88954</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M17" s="7">
         <v>270</v>
@@ -4884,13 +4887,13 @@
         <v>195765</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,13 +4908,13 @@
         <v>67237</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H18" s="7">
         <v>120</v>
@@ -4920,13 +4923,13 @@
         <v>84347</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M18" s="7">
         <v>211</v>
@@ -4935,13 +4938,13 @@
         <v>151583</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5060,13 +5063,13 @@
         <v>534131</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H21" s="7">
         <v>750</v>
@@ -5075,13 +5078,13 @@
         <v>491075</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M21" s="7">
         <v>1524</v>
@@ -5090,13 +5093,13 @@
         <v>1025207</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5111,13 +5114,13 @@
         <v>210713</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H22" s="7">
         <v>311</v>
@@ -5126,13 +5129,13 @@
         <v>213296</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M22" s="7">
         <v>602</v>
@@ -5141,13 +5144,13 @@
         <v>424008</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,7 +5226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E44487-CA08-4DB7-8B4D-513E61A02367}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB926AF-77B7-409A-9222-83F036D39E7B}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5240,7 +5243,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5347,13 +5350,13 @@
         <v>51426</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H4" s="7">
         <v>98</v>
@@ -5362,13 +5365,13 @@
         <v>51452</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="M4" s="7">
         <v>203</v>
@@ -5377,13 +5380,13 @@
         <v>102878</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5398,13 +5401,13 @@
         <v>4632</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -5413,13 +5416,13 @@
         <v>2477</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -5428,13 +5431,13 @@
         <v>7109</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5449,13 +5452,13 @@
         <v>2023</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -5464,13 +5467,13 @@
         <v>2618</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -5479,13 +5482,13 @@
         <v>4642</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5556,10 +5559,10 @@
         <v>70</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="H8" s="7">
         <v>147</v>
@@ -5568,13 +5571,13 @@
         <v>86047</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M8" s="7">
         <v>302</v>
@@ -5583,13 +5586,13 @@
         <v>179072</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5604,13 +5607,13 @@
         <v>45971</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="H9" s="7">
         <v>48</v>
@@ -5619,13 +5622,13 @@
         <v>31728</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="M9" s="7">
         <v>113</v>
@@ -5634,13 +5637,13 @@
         <v>77699</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5655,13 +5658,13 @@
         <v>33839</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="H10" s="7">
         <v>56</v>
@@ -5670,13 +5673,13 @@
         <v>37062</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="M10" s="7">
         <v>109</v>
@@ -5685,13 +5688,13 @@
         <v>70901</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5759,13 +5762,13 @@
         <v>36410</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="H12" s="7">
         <v>62</v>
@@ -5774,13 +5777,13 @@
         <v>46147</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M12" s="7">
         <v>108</v>
@@ -5789,13 +5792,13 @@
         <v>82557</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5810,13 +5813,13 @@
         <v>77517</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="H13" s="7">
         <v>96</v>
@@ -5825,13 +5828,13 @@
         <v>73259</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="M13" s="7">
         <v>186</v>
@@ -5840,13 +5843,13 @@
         <v>150777</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5861,13 +5864,13 @@
         <v>85391</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="H14" s="7">
         <v>70</v>
@@ -5876,13 +5879,13 @@
         <v>52446</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="M14" s="7">
         <v>173</v>
@@ -5891,13 +5894,13 @@
         <v>137836</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5965,13 +5968,13 @@
         <v>37586</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="H16" s="7">
         <v>38</v>
@@ -5980,13 +5983,13 @@
         <v>28618</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="M16" s="7">
         <v>89</v>
@@ -5995,13 +5998,13 @@
         <v>66204</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6016,13 +6019,13 @@
         <v>146247</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="H17" s="7">
         <v>165</v>
@@ -6031,13 +6034,13 @@
         <v>131280</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="M17" s="7">
         <v>336</v>
@@ -6046,13 +6049,13 @@
         <v>277527</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6067,13 +6070,13 @@
         <v>100410</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="G18" s="7" t="s">
-        <v>398</v>
+        <v>363</v>
       </c>
       <c r="H18" s="7">
         <v>138</v>
@@ -6082,13 +6085,13 @@
         <v>99486</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M18" s="7">
         <v>252</v>
@@ -6258,7 +6261,7 @@
         <v>420</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>195</v>
+        <v>421</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6273,13 +6276,13 @@
         <v>221663</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H22" s="7">
         <v>268</v>
@@ -6288,13 +6291,13 @@
         <v>191612</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>349</v>
+        <v>114</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M22" s="7">
         <v>541</v>
@@ -6303,13 +6306,13 @@
         <v>413275</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP19-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP19-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{477CBC20-F640-40EE-BFDB-C22DE8834271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{672F415C-EAFA-4548-AE6D-0C295BA3F960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7A2B1D24-52B7-4ECD-BC43-2AF194171FD9}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{CE05761F-8EB1-4CF7-A8D5-EB19ECCE9005}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="434">
   <si>
     <t>Menores según si en los últimos 6 meses ha ido al dentista en 2007 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -80,58 +80,58 @@
     <t>0%</t>
   </si>
   <si>
+    <t>1,18%</t>
+  </si>
+  <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
     <t>0,56%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
     <t>99,46%</t>
   </si>
   <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
+    <t>97,12%</t>
   </si>
   <si>
     <t>99,34%</t>
   </si>
   <si>
-    <t>97,74%</t>
+    <t>97,69%</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
     <t>0,54%</t>
   </si>
   <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
+    <t>2,88%</t>
   </si>
   <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>2,26%</t>
+    <t>2,31%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1195 +140,1207 @@
     <t>3-7</t>
   </si>
   <si>
+    <t>0,51%</t>
+  </si>
+  <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
     <t>0,25%</t>
   </si>
   <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
     <t>78,65%</t>
   </si>
   <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
   </si>
   <si>
     <t>78,14%</t>
   </si>
   <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
   </si>
   <si>
     <t>21,35%</t>
   </si>
   <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
   </si>
   <si>
     <t>21,86%</t>
   </si>
   <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>1,0%</t>
+  </si>
+  <si>
     <t>0,9%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
     <t>0,48%</t>
   </si>
   <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
     <t>50,66%</t>
   </si>
   <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
   </si>
   <si>
     <t>48,53%</t>
   </si>
   <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
   </si>
   <si>
     <t>49,34%</t>
   </si>
   <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
   </si>
   <si>
     <t>51,47%</t>
   </si>
   <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>0,67%</t>
+  </si>
+  <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
     <t>0,32%</t>
   </si>
   <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
     <t>57,93%</t>
   </si>
   <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
   </si>
   <si>
     <t>54,48%</t>
   </si>
   <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2023 (Tasa respuesta: 98,49%)</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
     <t>50,54%</t>
   </si>
   <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
   </si>
   <si>
     <t>33,05%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>Menores según si en los últimos 6 meses ha ido al dentista en 2023 (Tasa respuesta: 98,49%)</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
   </si>
 </sst>
 </file>
@@ -1740,7 +1752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77EBC0D-6EDE-4C46-8867-FDEBE1787599}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E361B0BD-F4C6-479A-8CEA-BF0B2396DCCA}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1909,10 +1921,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="D5" s="7">
-        <v>120730</v>
+        <v>105325</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1924,10 +1936,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="I5" s="7">
-        <v>105325</v>
+        <v>120730</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>20</v>
@@ -1963,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>650</v>
+        <v>846</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>25</v>
@@ -1978,7 +1990,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>846</v>
+        <v>650</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>27</v>
@@ -2011,25 +2023,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>162</v>
+      </c>
+      <c r="D7" s="7">
+        <v>106171</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="7">
         <v>182</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>121380</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="7">
-        <v>162</v>
-      </c>
-      <c r="I7" s="7">
-        <v>106171</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>31</v>
@@ -2115,10 +2127,10 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D9" s="7">
-        <v>199590</v>
+        <v>196543</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>36</v>
@@ -2130,10 +2142,10 @@
         <v>38</v>
       </c>
       <c r="H9" s="7">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="I9" s="7">
-        <v>196543</v>
+        <v>199590</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>39</v>
@@ -2166,10 +2178,10 @@
         <v>24</v>
       </c>
       <c r="C10" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D10" s="7">
-        <v>54166</v>
+        <v>56662</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>45</v>
@@ -2181,10 +2193,10 @@
         <v>47</v>
       </c>
       <c r="H10" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I10" s="7">
-        <v>56662</v>
+        <v>54166</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>48</v>
@@ -2217,25 +2229,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>379</v>
+      </c>
+      <c r="D11" s="7">
+        <v>253205</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="7">
         <v>382</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>253756</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="7">
-        <v>379</v>
-      </c>
-      <c r="I11" s="7">
-        <v>253205</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>31</v>
@@ -2321,10 +2333,10 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="D13" s="7">
-        <v>71689</v>
+        <v>58896</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>58</v>
@@ -2336,10 +2348,10 @@
         <v>60</v>
       </c>
       <c r="H13" s="7">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="I13" s="7">
-        <v>58896</v>
+        <v>71689</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>61</v>
@@ -2372,10 +2384,10 @@
         <v>24</v>
       </c>
       <c r="C14" s="7">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D14" s="7">
-        <v>69826</v>
+        <v>68652</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>67</v>
@@ -2387,10 +2399,10 @@
         <v>69</v>
       </c>
       <c r="H14" s="7">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I14" s="7">
-        <v>68652</v>
+        <v>69826</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>70</v>
@@ -2423,25 +2435,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>191</v>
+      </c>
+      <c r="D15" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="7">
         <v>212</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>141515</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="7">
-        <v>191</v>
-      </c>
-      <c r="I15" s="7">
-        <v>127548</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>31</v>
@@ -2527,10 +2539,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="D17" s="7">
-        <v>119367</v>
+        <v>98255</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>80</v>
@@ -2542,10 +2554,10 @@
         <v>82</v>
       </c>
       <c r="H17" s="7">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="I17" s="7">
-        <v>98255</v>
+        <v>119367</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>83</v>
@@ -2578,10 +2590,10 @@
         <v>24</v>
       </c>
       <c r="C18" s="7">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D18" s="7">
-        <v>86682</v>
+        <v>95151</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>89</v>
@@ -2593,10 +2605,10 @@
         <v>91</v>
       </c>
       <c r="H18" s="7">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I18" s="7">
-        <v>95151</v>
+        <v>86682</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>92</v>
@@ -2629,25 +2641,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>285</v>
+      </c>
+      <c r="D19" s="7">
+        <v>193406</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="7">
         <v>310</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>206049</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="7">
-        <v>285</v>
-      </c>
-      <c r="I19" s="7">
-        <v>193406</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>31</v>
@@ -2733,10 +2745,10 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>769</v>
+        <v>692</v>
       </c>
       <c r="D21" s="7">
-        <v>511376</v>
+        <v>459019</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>101</v>
@@ -2748,10 +2760,10 @@
         <v>103</v>
       </c>
       <c r="H21" s="7">
-        <v>692</v>
+        <v>769</v>
       </c>
       <c r="I21" s="7">
-        <v>459019</v>
+        <v>511376</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>104</v>
@@ -2784,10 +2796,10 @@
         <v>24</v>
       </c>
       <c r="C22" s="7">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="D22" s="7">
-        <v>211324</v>
+        <v>221311</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>110</v>
@@ -2799,10 +2811,10 @@
         <v>112</v>
       </c>
       <c r="H22" s="7">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="I22" s="7">
-        <v>221311</v>
+        <v>211324</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>113</v>
@@ -2835,25 +2847,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1017</v>
+      </c>
+      <c r="D23" s="7">
+        <v>680330</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="7">
         <v>1086</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>722700</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1017</v>
-      </c>
-      <c r="I23" s="7">
-        <v>680330</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>31</v>
@@ -2902,7 +2914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3C2486-6FF7-4119-A11E-A3B928111085}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DE188F-D9F6-4F00-8B9F-80D82A3CF3B3}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3071,10 +3083,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="D5" s="7">
-        <v>143252</v>
+        <v>144853</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>124</v>
@@ -3083,22 +3095,22 @@
         <v>125</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="7">
+        <v>203</v>
+      </c>
+      <c r="I5" s="7">
+        <v>143252</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>216</v>
-      </c>
-      <c r="I5" s="7">
-        <v>144853</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M5" s="7">
         <v>419</v>
@@ -3122,31 +3134,31 @@
         <v>24</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>669</v>
+        <v>1908</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>132</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>669</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="H6" s="7">
-        <v>3</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1908</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>136</v>
@@ -3173,25 +3185,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>219</v>
+      </c>
+      <c r="D7" s="7">
+        <v>146761</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="7">
         <v>204</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>143921</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="7">
-        <v>219</v>
-      </c>
-      <c r="I7" s="7">
-        <v>146761</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>31</v>
@@ -3238,7 +3250,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3253,7 +3265,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3277,10 +3289,10 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="D9" s="7">
-        <v>197750</v>
+        <v>181917</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>141</v>
@@ -3292,10 +3304,10 @@
         <v>143</v>
       </c>
       <c r="H9" s="7">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="I9" s="7">
-        <v>181917</v>
+        <v>197750</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>144</v>
@@ -3328,10 +3340,10 @@
         <v>24</v>
       </c>
       <c r="C10" s="7">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="D10" s="7">
-        <v>70497</v>
+        <v>54333</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>150</v>
@@ -3343,10 +3355,10 @@
         <v>152</v>
       </c>
       <c r="H10" s="7">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="I10" s="7">
-        <v>54333</v>
+        <v>70497</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>153</v>
@@ -3379,25 +3391,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>340</v>
+      </c>
+      <c r="D11" s="7">
+        <v>236250</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="7">
         <v>373</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>268247</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="7">
-        <v>340</v>
-      </c>
-      <c r="I11" s="7">
-        <v>236250</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>31</v>
@@ -3474,7 +3486,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,10 +3495,10 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="D13" s="7">
-        <v>85689</v>
+        <v>74695</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>161</v>
@@ -3498,10 +3510,10 @@
         <v>163</v>
       </c>
       <c r="H13" s="7">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="I13" s="7">
-        <v>74695</v>
+        <v>85689</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>164</v>
@@ -3534,10 +3546,10 @@
         <v>24</v>
       </c>
       <c r="C14" s="7">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D14" s="7">
-        <v>72882</v>
+        <v>82348</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>170</v>
@@ -3549,10 +3561,10 @@
         <v>172</v>
       </c>
       <c r="H14" s="7">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="I14" s="7">
-        <v>82348</v>
+        <v>72882</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>173</v>
@@ -3585,25 +3597,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>223</v>
+      </c>
+      <c r="D15" s="7">
+        <v>157043</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="7">
         <v>228</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>158571</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="7">
-        <v>223</v>
-      </c>
-      <c r="I15" s="7">
-        <v>157043</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>31</v>
@@ -3689,10 +3701,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="D17" s="7">
-        <v>105306</v>
+        <v>90879</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>182</v>
@@ -3704,10 +3716,10 @@
         <v>184</v>
       </c>
       <c r="H17" s="7">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="I17" s="7">
-        <v>90879</v>
+        <v>105306</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>185</v>
@@ -3740,10 +3752,10 @@
         <v>24</v>
       </c>
       <c r="C18" s="7">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D18" s="7">
-        <v>73356</v>
+        <v>80458</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>191</v>
@@ -3755,10 +3767,10 @@
         <v>193</v>
       </c>
       <c r="H18" s="7">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="I18" s="7">
-        <v>80458</v>
+        <v>73356</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>194</v>
@@ -3791,25 +3803,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>243</v>
+      </c>
+      <c r="D19" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="7">
         <v>263</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>178662</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="7">
-        <v>243</v>
-      </c>
-      <c r="I19" s="7">
-        <v>171337</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>31</v>
@@ -3895,10 +3907,10 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>760</v>
+        <v>711</v>
       </c>
       <c r="D21" s="7">
-        <v>531997</v>
+        <v>492345</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>200</v>
@@ -3907,22 +3919,22 @@
         <v>201</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="H21" s="7">
-        <v>711</v>
+        <v>760</v>
       </c>
       <c r="I21" s="7">
-        <v>492345</v>
+        <v>531997</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M21" s="7">
         <v>1471</v>
@@ -3931,13 +3943,13 @@
         <v>1024342</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,34 +3958,34 @@
         <v>24</v>
       </c>
       <c r="C22" s="7">
+        <v>314</v>
+      </c>
+      <c r="D22" s="7">
+        <v>219046</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H22" s="7">
         <v>308</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>217403</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H22" s="7">
-        <v>314</v>
-      </c>
-      <c r="I22" s="7">
-        <v>219046</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M22" s="7">
         <v>622</v>
@@ -3982,13 +3994,13 @@
         <v>436449</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3997,25 +4009,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1025</v>
+      </c>
+      <c r="D23" s="7">
+        <v>711391</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="7">
         <v>1068</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>749400</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1025</v>
-      </c>
-      <c r="I23" s="7">
-        <v>711391</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>31</v>
@@ -4064,7 +4076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067D5305-A068-436F-9355-DA2861D365BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77AD5D9-D72F-4884-82A0-E74E04B3C862}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4081,7 +4093,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4194,7 +4206,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4209,7 +4221,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4233,34 +4245,34 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>211</v>
+      </c>
+      <c r="D5" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="7">
         <v>186</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>123530</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="J5" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>211</v>
-      </c>
-      <c r="I5" s="7">
-        <v>131654</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="M5" s="7">
         <v>397</v>
@@ -4269,10 +4281,10 @@
         <v>255184</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -4284,34 +4296,34 @@
         <v>24</v>
       </c>
       <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>634</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -4326,7 +4338,7 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,25 +4347,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>211</v>
+      </c>
+      <c r="D7" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="7">
         <v>187</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>124164</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="7">
-        <v>211</v>
-      </c>
-      <c r="I7" s="7">
-        <v>131654</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>31</v>
@@ -4400,7 +4412,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>33</v>
+        <v>228</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4415,7 +4427,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>226</v>
+        <v>34</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4439,34 +4451,34 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
+        <v>261</v>
+      </c>
+      <c r="D9" s="7">
+        <v>164487</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H9" s="7">
         <v>300</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>201650</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H9" s="7">
-        <v>261</v>
-      </c>
-      <c r="I9" s="7">
-        <v>164487</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>229</v>
-      </c>
       <c r="K9" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M9" s="7">
         <v>561</v>
@@ -4478,10 +4490,10 @@
         <v>42</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4490,34 +4502,34 @@
         <v>24</v>
       </c>
       <c r="C10" s="7">
+        <v>71</v>
+      </c>
+      <c r="D10" s="7">
+        <v>46030</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H10" s="7">
         <v>80</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>56411</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H10" s="7">
-        <v>71</v>
-      </c>
-      <c r="I10" s="7">
-        <v>46030</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>236</v>
-      </c>
       <c r="K10" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M10" s="7">
         <v>151</v>
@@ -4529,10 +4541,10 @@
         <v>51</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4541,25 +4553,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>332</v>
+      </c>
+      <c r="D11" s="7">
+        <v>210517</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="7">
         <v>380</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>258061</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="7">
-        <v>332</v>
-      </c>
-      <c r="I11" s="7">
-        <v>210517</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>31</v>
@@ -4606,7 +4618,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>179</v>
+        <v>243</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4621,7 +4633,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>241</v>
+        <v>180</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4636,7 +4648,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4645,34 +4657,34 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
+        <v>152</v>
+      </c>
+      <c r="D13" s="7">
+        <v>105980</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H13" s="7">
         <v>144</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>102140</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H13" s="7">
-        <v>152</v>
-      </c>
-      <c r="I13" s="7">
-        <v>105980</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M13" s="7">
         <v>296</v>
@@ -4681,13 +4693,13 @@
         <v>208120</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4696,34 +4708,34 @@
         <v>24</v>
       </c>
       <c r="C14" s="7">
+        <v>120</v>
+      </c>
+      <c r="D14" s="7">
+        <v>82919</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H14" s="7">
         <v>119</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>86432</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="H14" s="7">
-        <v>120</v>
-      </c>
-      <c r="I14" s="7">
-        <v>82919</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M14" s="7">
         <v>239</v>
@@ -4732,13 +4744,13 @@
         <v>169351</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4747,25 +4759,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>272</v>
+      </c>
+      <c r="D15" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="7">
         <v>263</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>188572</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="7">
-        <v>272</v>
-      </c>
-      <c r="I15" s="7">
-        <v>188899</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>31</v>
@@ -4812,7 +4824,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4827,7 +4839,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4842,7 +4854,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4851,34 +4863,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>126</v>
+      </c>
+      <c r="D17" s="7">
+        <v>88954</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H17" s="7">
         <v>144</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>106811</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H17" s="7">
-        <v>126</v>
-      </c>
-      <c r="I17" s="7">
-        <v>88954</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="M17" s="7">
         <v>270</v>
@@ -4887,13 +4899,13 @@
         <v>195765</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4902,34 +4914,34 @@
         <v>24</v>
       </c>
       <c r="C18" s="7">
+        <v>120</v>
+      </c>
+      <c r="D18" s="7">
+        <v>84347</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H18" s="7">
         <v>91</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>67237</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="H18" s="7">
-        <v>120</v>
-      </c>
-      <c r="I18" s="7">
-        <v>84347</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="M18" s="7">
         <v>211</v>
@@ -4938,13 +4950,13 @@
         <v>151583</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4953,25 +4965,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>246</v>
+      </c>
+      <c r="D19" s="7">
+        <v>173301</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="7">
         <v>235</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>174048</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="7">
-        <v>246</v>
-      </c>
-      <c r="I19" s="7">
-        <v>173301</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>31</v>
@@ -5018,7 +5030,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5033,7 +5045,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5057,34 +5069,34 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
+        <v>750</v>
+      </c>
+      <c r="D21" s="7">
+        <v>491075</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H21" s="7">
         <v>774</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>534131</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="H21" s="7">
-        <v>750</v>
-      </c>
-      <c r="I21" s="7">
-        <v>491075</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="M21" s="7">
         <v>1524</v>
@@ -5093,13 +5105,13 @@
         <v>1025207</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5108,34 +5120,34 @@
         <v>24</v>
       </c>
       <c r="C22" s="7">
+        <v>311</v>
+      </c>
+      <c r="D22" s="7">
+        <v>213296</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H22" s="7">
         <v>291</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>210713</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="H22" s="7">
-        <v>311</v>
-      </c>
-      <c r="I22" s="7">
-        <v>213296</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="M22" s="7">
         <v>602</v>
@@ -5144,13 +5156,13 @@
         <v>424008</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5159,25 +5171,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1061</v>
+      </c>
+      <c r="D23" s="7">
+        <v>704371</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="7">
         <v>1065</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>744844</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I23" s="7">
-        <v>704371</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>31</v>
@@ -5226,7 +5238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB926AF-77B7-409A-9222-83F036D39E7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE2C711-BCF0-4FA7-A5C4-254FA4EB8C6D}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5243,7 +5255,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5344,49 +5356,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>98</v>
+      </c>
+      <c r="D4" s="7">
+        <v>51714</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H4" s="7">
         <v>105</v>
       </c>
-      <c r="D4" s="7">
-        <v>51426</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="H4" s="7">
-        <v>98</v>
-      </c>
       <c r="I4" s="7">
-        <v>51452</v>
+        <v>54145</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M4" s="7">
         <v>203</v>
       </c>
       <c r="N4" s="7">
-        <v>102878</v>
+        <v>105858</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5395,49 +5407,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2440</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H5" s="7">
         <v>7</v>
       </c>
-      <c r="D5" s="7">
-        <v>4632</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="H5" s="7">
-        <v>6</v>
-      </c>
       <c r="I5" s="7">
-        <v>2477</v>
+        <v>4821</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
       </c>
       <c r="N5" s="7">
-        <v>7109</v>
+        <v>7261</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5446,49 +5458,49 @@
         <v>24</v>
       </c>
       <c r="C6" s="7">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2516</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H6" s="7">
         <v>3</v>
       </c>
-      <c r="D6" s="7">
-        <v>2023</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="I6" s="7">
+        <v>2052</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="H6" s="7">
-        <v>4</v>
-      </c>
-      <c r="I6" s="7">
-        <v>2618</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>320</v>
-      </c>
       <c r="K6" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
       </c>
       <c r="N6" s="7">
-        <v>4642</v>
+        <v>4567</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5497,25 +5509,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>108</v>
+      </c>
+      <c r="D7" s="7">
+        <v>56670</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="7">
         <v>115</v>
       </c>
-      <c r="D7" s="7">
-        <v>58081</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="7">
-        <v>108</v>
-      </c>
       <c r="I7" s="7">
-        <v>56548</v>
+        <v>61018</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>31</v>
@@ -5530,7 +5542,7 @@
         <v>223</v>
       </c>
       <c r="N7" s="7">
-        <v>114629</v>
+        <v>117687</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>31</v>
@@ -5550,49 +5562,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>147</v>
+      </c>
+      <c r="D8" s="7">
+        <v>87238</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H8" s="7">
         <v>155</v>
       </c>
-      <c r="D8" s="7">
-        <v>93025</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="H8" s="7">
-        <v>147</v>
-      </c>
       <c r="I8" s="7">
-        <v>86047</v>
+        <v>95988</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M8" s="7">
         <v>302</v>
       </c>
       <c r="N8" s="7">
-        <v>179072</v>
+        <v>183226</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5601,49 +5613,49 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
+        <v>48</v>
+      </c>
+      <c r="D9" s="7">
+        <v>31340</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H9" s="7">
         <v>65</v>
       </c>
-      <c r="D9" s="7">
-        <v>45971</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="H9" s="7">
-        <v>48</v>
-      </c>
       <c r="I9" s="7">
-        <v>31728</v>
+        <v>48507</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="M9" s="7">
         <v>113</v>
       </c>
       <c r="N9" s="7">
-        <v>77699</v>
+        <v>79847</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,49 +5664,49 @@
         <v>24</v>
       </c>
       <c r="C10" s="7">
+        <v>56</v>
+      </c>
+      <c r="D10" s="7">
+        <v>36465</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H10" s="7">
         <v>53</v>
       </c>
-      <c r="D10" s="7">
-        <v>33839</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="H10" s="7">
-        <v>56</v>
-      </c>
       <c r="I10" s="7">
-        <v>37062</v>
+        <v>35430</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="M10" s="7">
         <v>109</v>
       </c>
       <c r="N10" s="7">
-        <v>70901</v>
+        <v>71895</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>350</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5703,25 +5715,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>251</v>
+      </c>
+      <c r="D11" s="7">
+        <v>155043</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="7">
         <v>273</v>
       </c>
-      <c r="D11" s="7">
-        <v>172835</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="7">
-        <v>251</v>
-      </c>
       <c r="I11" s="7">
-        <v>154837</v>
+        <v>179925</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>31</v>
@@ -5736,7 +5748,7 @@
         <v>524</v>
       </c>
       <c r="N11" s="7">
-        <v>327672</v>
+        <v>334968</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>31</v>
@@ -5756,49 +5768,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>62</v>
+      </c>
+      <c r="D12" s="7">
+        <v>45378</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H12" s="7">
         <v>46</v>
       </c>
-      <c r="D12" s="7">
-        <v>36410</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="H12" s="7">
-        <v>62</v>
-      </c>
       <c r="I12" s="7">
-        <v>46147</v>
+        <v>38568</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M12" s="7">
         <v>108</v>
       </c>
       <c r="N12" s="7">
-        <v>82557</v>
+        <v>83946</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,49 +5819,49 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
+        <v>96</v>
+      </c>
+      <c r="D13" s="7">
+        <v>71993</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H13" s="7">
         <v>90</v>
       </c>
-      <c r="D13" s="7">
-        <v>77517</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="H13" s="7">
-        <v>96</v>
-      </c>
       <c r="I13" s="7">
-        <v>73259</v>
+        <v>80584</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="M13" s="7">
         <v>186</v>
       </c>
       <c r="N13" s="7">
-        <v>150777</v>
+        <v>152577</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,49 +5870,49 @@
         <v>24</v>
       </c>
       <c r="C14" s="7">
+        <v>70</v>
+      </c>
+      <c r="D14" s="7">
+        <v>51683</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="H14" s="7">
         <v>103</v>
       </c>
-      <c r="D14" s="7">
-        <v>85391</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="H14" s="7">
-        <v>70</v>
-      </c>
       <c r="I14" s="7">
-        <v>52446</v>
+        <v>89994</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="M14" s="7">
         <v>173</v>
       </c>
       <c r="N14" s="7">
-        <v>137836</v>
+        <v>141676</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5909,25 +5921,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>228</v>
+      </c>
+      <c r="D15" s="7">
+        <v>169054</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="7">
         <v>239</v>
       </c>
-      <c r="D15" s="7">
-        <v>199318</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="7">
-        <v>228</v>
-      </c>
       <c r="I15" s="7">
-        <v>171852</v>
+        <v>209146</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>31</v>
@@ -5942,7 +5954,7 @@
         <v>467</v>
       </c>
       <c r="N15" s="7">
-        <v>371170</v>
+        <v>378200</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>31</v>
@@ -5962,49 +5974,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>38</v>
+      </c>
+      <c r="D16" s="7">
+        <v>31471</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H16" s="7">
         <v>51</v>
       </c>
-      <c r="D16" s="7">
-        <v>37586</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="H16" s="7">
-        <v>38</v>
-      </c>
       <c r="I16" s="7">
-        <v>28618</v>
+        <v>43397</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="M16" s="7">
         <v>89</v>
       </c>
       <c r="N16" s="7">
-        <v>66204</v>
+        <v>74867</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6013,49 +6025,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>165</v>
+      </c>
+      <c r="D17" s="7">
+        <v>144388</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="H17" s="7">
         <v>171</v>
       </c>
-      <c r="D17" s="7">
-        <v>146247</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="H17" s="7">
-        <v>165</v>
-      </c>
       <c r="I17" s="7">
-        <v>131280</v>
+        <v>148917</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M17" s="7">
         <v>336</v>
       </c>
       <c r="N17" s="7">
-        <v>277527</v>
+        <v>293305</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6064,49 +6076,49 @@
         <v>24</v>
       </c>
       <c r="C18" s="7">
+        <v>138</v>
+      </c>
+      <c r="D18" s="7">
+        <v>98549</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="H18" s="7">
         <v>114</v>
       </c>
-      <c r="D18" s="7">
-        <v>100410</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="H18" s="7">
-        <v>138</v>
-      </c>
       <c r="I18" s="7">
-        <v>99486</v>
+        <v>107969</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="M18" s="7">
         <v>252</v>
       </c>
       <c r="N18" s="7">
-        <v>199896</v>
+        <v>206518</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6115,25 +6127,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>341</v>
+      </c>
+      <c r="D19" s="7">
+        <v>274408</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="7">
         <v>336</v>
       </c>
-      <c r="D19" s="7">
-        <v>284243</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="7">
-        <v>341</v>
-      </c>
       <c r="I19" s="7">
-        <v>259384</v>
+        <v>300283</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>31</v>
@@ -6148,7 +6160,7 @@
         <v>677</v>
       </c>
       <c r="N19" s="7">
-        <v>543627</v>
+        <v>574691</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>31</v>
@@ -6168,49 +6180,49 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>345</v>
+      </c>
+      <c r="D20" s="7">
+        <v>215801</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H20" s="7">
         <v>357</v>
       </c>
-      <c r="D20" s="7">
-        <v>218446</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="H20" s="7">
-        <v>345</v>
-      </c>
       <c r="I20" s="7">
-        <v>212264</v>
+        <v>232097</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="M20" s="7">
         <v>702</v>
       </c>
       <c r="N20" s="7">
-        <v>430710</v>
+        <v>447898</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6219,49 +6231,49 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
+        <v>315</v>
+      </c>
+      <c r="D21" s="7">
+        <v>250161</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="H21" s="7">
         <v>333</v>
       </c>
-      <c r="D21" s="7">
-        <v>274367</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="H21" s="7">
-        <v>315</v>
-      </c>
       <c r="I21" s="7">
-        <v>238745</v>
+        <v>282829</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="M21" s="7">
         <v>648</v>
       </c>
       <c r="N21" s="7">
-        <v>513112</v>
+        <v>532991</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6270,49 +6282,49 @@
         <v>24</v>
       </c>
       <c r="C22" s="7">
+        <v>268</v>
+      </c>
+      <c r="D22" s="7">
+        <v>189213</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="H22" s="7">
         <v>273</v>
       </c>
-      <c r="D22" s="7">
-        <v>221663</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="H22" s="7">
-        <v>268</v>
-      </c>
       <c r="I22" s="7">
-        <v>191612</v>
+        <v>235444</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>114</v>
+        <v>428</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="M22" s="7">
         <v>541</v>
       </c>
       <c r="N22" s="7">
-        <v>413275</v>
+        <v>424657</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6321,25 +6333,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>928</v>
+      </c>
+      <c r="D23" s="7">
+        <v>655175</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="7">
         <v>963</v>
       </c>
-      <c r="D23" s="7">
-        <v>714477</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" s="7">
-        <v>928</v>
-      </c>
       <c r="I23" s="7">
-        <v>642621</v>
+        <v>750371</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>31</v>
@@ -6354,7 +6366,7 @@
         <v>1891</v>
       </c>
       <c r="N23" s="7">
-        <v>1357098</v>
+        <v>1405546</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>31</v>
